--- a/src/resources/ulkeler.xlsx
+++ b/src/resources/ulkeler.xlsx
@@ -13,7 +13,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="580">
   <si>
     <t>Ülke (İngilizce)</t>
   </si>
@@ -1742,28 +1742,32 @@
     <t>Zimbabve</t>
   </si>
   <si>
-    <t>s</t>
-  </si>
-  <si>
     <t>df</t>
   </si>
   <si>
-    <t>dfa</t>
-  </si>
-  <si>
-    <t>sadf</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>sdf</t>
+    <t>dsf</t>
+  </si>
+  <si>
+    <t>sd</t>
+  </si>
+  <si>
+    <t>Nufus</t>
+  </si>
+  <si>
+    <t>1.500.000</t>
+  </si>
+  <si>
+    <t>250.000</t>
+  </si>
+  <si>
+    <t>54.000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2184,7 +2188,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D191"/>
+  <dimension ref="A1:E191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
@@ -2192,7 +2196,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="25.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="4" customWidth="true" width="25.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
@@ -2208,6 +2212,9 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="2" spans="1:4" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
@@ -2222,6 +2229,9 @@
       <c r="D2" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="E2" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="3" spans="1:4" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
@@ -2334,6 +2344,9 @@
       <c r="D10" s="8" t="s">
         <v>30</v>
       </c>
+      <c r="E10" t="s">
+        <v>578</v>
+      </c>
     </row>
     <row r="11" spans="1:4" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
@@ -2403,6 +2416,9 @@
       </c>
       <c r="D15" s="7" t="s">
         <v>49</v>
+      </c>
+      <c r="E15" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
@@ -4877,38 +4893,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:E7"/>
+  <dimension ref="A3:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E4" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>574</v>
-      </c>
-      <c r="C5" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>575</v>
-      </c>
-      <c r="D7" t="s">
-        <v>578</v>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>573</v>
       </c>
     </row>
   </sheetData>

--- a/src/resources/ulkeler.xlsx
+++ b/src/resources/ulkeler.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="580">
   <si>
     <t>Ülke (İngilizce)</t>
   </si>

--- a/src/resources/ulkeler.xlsx
+++ b/src/resources/ulkeler.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="580">
   <si>
     <t>Ülke (İngilizce)</t>
   </si>
@@ -2188,7 +2188,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E191"/>
+  <dimension ref="A1:F191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
@@ -2215,6 +2215,9 @@
       <c r="E1" t="s">
         <v>576</v>
       </c>
+      <c r="F1" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="2" spans="1:4" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
@@ -2232,6 +2235,9 @@
       <c r="E2" t="s">
         <v>577</v>
       </c>
+      <c r="F2" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="3" spans="1:4" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
@@ -2347,6 +2353,9 @@
       <c r="E10" t="s">
         <v>578</v>
       </c>
+      <c r="F10" t="s">
+        <v>578</v>
+      </c>
     </row>
     <row r="11" spans="1:4" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
@@ -2418,6 +2427,9 @@
         <v>49</v>
       </c>
       <c r="E15" t="s">
+        <v>579</v>
+      </c>
+      <c r="F15" t="s">
         <v>579</v>
       </c>
     </row>
